--- a/exports/excel/calendar.xlsx
+++ b/exports/excel/calendar.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="github-calendar" sheetId="1" r:id="rId1"/>
+    <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
+    <sheet name="github-calendar" sheetId="2" r:id="rId2"/>
+    <sheet name="place_time" sheetId="3" r:id="rId3"/>
+    <sheet name="comment_time" sheetId="4" r:id="rId4"/>
+    <sheet name="support_time" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Sun</t>
   </si>
@@ -40,7 +44,79 @@
     <t>weeks out:</t>
   </si>
   <si>
-    <t>first date: 2014-06-19 00:00:00</t>
+    <t>first date: 2014-04-25 00:00:00</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -97,6 +173,645 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>places added</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>place_time!A1:A24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>place_time!B1:B24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>comments</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>comment_time!A1:A24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comment_time!B1:B24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>supports</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>support_time!A1:A24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>support_time!B1:B24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,174 +1099,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
       <c r="E5" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1">
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
       <c r="C6" s="2">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1">
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>12</v>
+      <c r="E7" s="2">
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="M7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -579,8 +1313,32 @@
       <c r="I8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -600,4 +1358,619 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exports/excel/calendar.xlsx
+++ b/exports/excel/calendar.xlsx
@@ -514,7 +514,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
@@ -1706,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
